--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/28_Edirne_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/28_Edirne_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D424B983-1F26-4E2F-80DC-E5790285B994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F2B34C1-B11A-45B7-9C70-7BC54912B063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2E314A87-6281-4D8B-8003-34C4A4FDF08C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E3E35083-AC66-400A-9ED0-1576047BF444}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{0A79923B-B770-42F1-8533-34F6DD8083DC}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{68F83D88-14B9-4A51-B817-2B6BE201F0F2}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{FCFB24FF-730B-4FF8-8F2A-8025991D31C7}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{A8025636-070A-4748-AA4F-18AC858DB232}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{53C906E3-D3F2-4341-8355-7751E55C6FD3}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{CE1C9A75-DFB8-448E-8B3E-D26BCD746843}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{2B3939C9-6280-482B-9B1C-3721C6CE1546}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{3BD34ABD-519B-430B-9B2A-FC981B4FC579}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB845F47-E99B-4E47-AAF4-2801D96D285D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA612A1-8CAF-4CD0-8C56-2948E0660E04}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2443,18 +2443,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D3822336-FE3F-4D1E-A234-77BC0127D530}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2CAB163B-5C95-4C68-B365-B79B99D91F3C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{40F81DDF-F334-45A7-869A-7862227CF369}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{66503629-7730-4757-9642-0EA7124CA74B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4936D6BF-9E34-4B81-86E8-D57960578B87}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{98DC136B-E602-4FC5-84AE-FE4751BF2334}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{ADE09362-E122-4643-9B16-B99D0CD4CD9D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{56797629-A0B4-4EA6-8906-FBBA0BCADDAC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A4FC2FE8-4065-4CDD-BB5A-96DB79FE965D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{BF850588-27F2-4A7A-B19F-E6434618FCB9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2616C116-B92B-4C7A-B189-6CECE4D69DCA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C5348184-338A-4AA9-B874-57507335300C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6D18DE9C-56D3-4931-81FC-9F6E1381B110}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7DE36BBF-7EE7-44E4-90D5-7F4E95B13B38}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{866EC189-C37A-42F0-B0BD-3DA25EA9BE85}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{968E54EE-F80F-4FD4-8141-1C52097E2B9C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B82DD0D4-656E-4841-AD35-9F380B272901}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2D6513E5-B8A6-41DF-8FD7-7AE71D5A6B31}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{1D2A5EF3-F76C-45DA-945A-446EFAA1C7C1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{39012C6A-32AA-4C45-A1C9-A24A73A89CF6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0A1D8FB7-69A3-4954-B177-ADD64221A4E2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9572B3CE-E61F-4323-BC82-8A1A764A4707}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C044E4F4-A66B-4BA6-8615-99AE7BC80B80}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{699A7951-3F09-4E88-BE28-A660D3E5ED77}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2467,7 +2467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8CD131-EF5B-44DC-85DF-48938CFAE8DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5057D7-C5C0-47A7-B3FE-774D371ED325}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3674,18 +3674,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{66E1D6DE-C3E0-42C8-A404-213549D6FDBE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{27216894-0EDA-437B-A6F4-CA1814B5C63C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6F8E0C09-F2CF-428F-AC72-816F250B7372}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D4218D81-3ED7-4FEF-B14B-55D867EC71A7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F056B4B8-4ABD-4A0F-815D-B60A4E1E0717}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9309BC89-861D-4D11-B97C-5F8993CFF965}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7EFD7A73-F1FE-4F09-9FEC-AB1371DD9ADF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C7FCA9D4-BD87-4C43-96A6-9B056E0D2C15}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{915726C2-4637-4352-BF5E-E998AB82C2C5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C5CFF519-4F70-4583-9636-6E407BF2C3F2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E3E4523A-80F1-46DD-8220-D28D8E01FA8E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{FEE50BE9-2049-478F-8844-9AA936528CAC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{091A89FC-72DE-42F6-ABEE-1F2F916D7437}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C870D937-2D27-43B7-93B2-36D5AD0A2311}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1C42B71F-29FF-497A-BBB8-F822A7D50DA6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FA0C487D-D96E-4CE3-8871-D1139D604D2D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E758D54D-BF96-466D-A687-C8117E25F4D3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{84FFA238-7BC5-4B23-9727-BBA89A796487}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{68F1C5DC-822F-4A87-9954-046395F2EA9E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C5BE08D2-5589-4D64-9AF1-461C6EDCCDE6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{20B0AAB7-8010-409C-B626-CEA167E0109B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{EC386F95-1392-4A7D-BEB7-48BB79332EFE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{EC89D0B9-3281-42C7-B460-C6DEE1C25138}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A002F252-C147-4521-A171-9964CACD8185}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3698,7 +3698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5296B9A0-67FC-4B56-8A20-D9552A08FFF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942CE151-6669-4D33-89D1-08B02E886ED3}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4901,18 +4901,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7413A146-324F-4F00-8B99-973413251C26}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{81E25E11-6C5C-4CCB-8A7F-65010DDD1D5D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{34229FE2-527F-461C-9368-CAE53BE0722E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{2DB559FE-8B2C-49FA-9309-92DF9B22CE67}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7394B37B-46F8-46E3-BFF3-DA372351907C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F28765AE-C340-4768-9C65-0D6F1C7721F3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0654D574-2720-4D61-A922-DFAC4040D0D2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F416D9B5-BE0E-405A-A4BD-F95D7FDE6B4A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5D126875-8589-4E3A-A594-9B2B8816AA38}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6EAECE43-DE3D-4833-A975-560BB417AF4F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FCB245B3-2EEF-4ADB-A8E7-5FF9DEB6890F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{77347CC8-8F50-4103-83D0-6C9A5C1EB0E9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5F4876DB-D697-4205-9E08-B37C3D15B477}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5CF4C67B-12DA-4B01-9FF3-FF68B75FBF16}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{509BAB96-8A67-4A4D-A35B-B4A83478AB00}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{2927BB34-E8BA-4FA2-B4E8-71072ED031F7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{AE86DB9C-F339-4E68-A9FC-6AADB3A800B0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{054F4F5B-77E7-4E77-A6A1-94D899024192}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0471EFD9-BDA8-4831-A158-8CF8104E5E01}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F1C6F904-B724-410F-8E07-22ACC717023D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5BDF543B-5CAC-4CDB-8172-A20169ACCA1D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A057193E-4609-4461-9B6C-B77DD8B4AB78}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{946C62C4-3A37-4A15-8CFB-8ECB0C1E831E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{051DFB4E-D89D-45B9-BFEE-A03136BEEC58}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4925,7 +4925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243FB413-294F-41E7-8775-E2E45D0C8D7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5543D57E-ED60-4A23-B36C-EFBE4CAA6AB8}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6110,18 +6110,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1BE45CF3-687D-4C99-9D3F-A5B2DC3450EA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CEE9F28D-AF10-460A-813F-92A777FF25A3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{56C7362C-A802-4798-B18B-1805B3DD1CD4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B142814C-2027-4006-A839-59398D9EBD09}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4983CE70-EB1C-4E7E-B896-6FC68F7B4629}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9CF4F928-89BF-416F-83FB-9169F3B7655C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{05FA0595-F11D-4CA1-B899-27F81909CE40}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{98ADD6B9-F5AC-4A9D-93D7-8BAC6272D5F4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8E70736C-965D-46B4-99AF-5CFDED8FB88A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{02BC1E5D-8CF7-499F-9EBF-E08DDDEDD342}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6BB1212F-6C03-4390-9180-5B10898258E2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7851E777-223D-439D-922B-261C41C1BDFB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B5AE9245-6243-4A8A-8FEB-9E61915E1761}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EDB01ADC-CBFC-4E2D-A523-313C47B79284}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A657666D-046A-47F9-8F63-8A6A2470F4CA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0B46E1E9-6FCF-407E-BA3C-04EE0773FB51}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{729C7C33-064A-475E-8E51-2E9EBFE1E09A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9048BD80-A9AE-46B5-A422-5C75AAC684B2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B32EF637-179C-438F-91E7-68C5C92CD916}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{BD812629-2136-42E0-9261-05F3818B4AB8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8702F84D-86A0-448F-B6A7-34655B6CD799}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{77DEB1E9-55A0-4775-AC35-C2D881A3B845}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A77FE6D8-6AC2-46C3-9F9A-CFF8D43FA116}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F2BCA9A7-8EB8-47D8-BC29-37FD2A2FB55A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6134,7 +6134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2991FC7A-FE24-487C-9E4B-AC8790297C5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417BC621-BB07-47F2-8215-166CC377F678}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7343,18 +7343,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{502F50B6-9A06-4F4C-9B40-42886759DD64}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4A692A9E-C3D1-4F0B-A74E-CA6F7274D411}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F7904F21-6928-4A80-80C5-11B7D2796689}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{822E8B5E-514C-4501-9429-3195BE8B121C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5E7FA306-2356-4918-BE6B-7D488819E4E2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0530AC00-7BF6-4243-BD5F-6FBAD808847E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5DBE6068-149B-4EA4-BE22-A600FABBB01B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{597848E5-E244-4B17-B7BF-BA90E05E589F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F611F379-15E0-4C37-AEB0-6A5310F25547}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0BB8A7D1-96E3-45E0-B74A-1CD944B36400}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F541DC35-0B6D-4521-ADAC-CD79A0AE2221}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C25FBEE4-39BA-4E12-9589-D049A0C0B15C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{BA877DC0-91CB-4653-B971-6FAE400B7211}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{77CB9ED4-F6CF-448E-858D-2DDE0CF25D99}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E33CAA48-2218-4095-8997-3355E89E91A2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7093193E-9258-4501-9B48-05602869B559}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1FFB93CD-825B-43F3-B116-FDEE81B26BC7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C311024A-83D4-47E6-AA3F-34C6879C5A86}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{1719C4B5-ED11-4F17-9AE6-C87F56F33459}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A697F41B-F146-4E68-A4A1-2B91377C7C08}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{795363F3-51C0-41B8-BC42-5203C65B9A14}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{EB6554CE-D9CF-465F-BDDA-A621AC8384D5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D48CAC69-F859-4FB7-A4EF-EB407B506825}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{33B0FBFF-376C-42DE-B897-28096BB355F9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7367,7 +7367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670EB59F-A1FF-451A-84FD-AB9F23D39303}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67DE9EC-D2C5-47A4-AFE9-CE36BA475592}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8576,18 +8576,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{BDE2361E-4EF7-4E1E-BF5D-7A7BD83D054D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7C3DA86B-26DE-42A4-A665-1D7CE62D4E65}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{48829586-32F7-4C62-AA7C-1E6AC9C2ED0F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5E16EE0A-EA37-48CE-BE92-2077880FA490}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A1E6FF19-86E8-4420-8F7C-71EBA80D285F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7039B298-5F8D-4671-B50F-0DB4DFEE3210}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C586CE5B-C61A-4F69-A0A2-AD338DBD5BE2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E02145A4-3ACB-45F8-86F6-DEDBFA41DF83}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0F0187B2-102A-4878-BA03-CE70B6F1E047}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{53236CEA-929A-4C10-B11A-85287FA06FD6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{23591460-EDF0-463A-9001-54C35BDBAAB7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2F093645-2C88-4F6C-90C8-0A4EFC6DB3B4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C9060851-156B-4D5A-9899-76929563CE0D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C10870AE-10D1-4D23-9006-E56B6B648E48}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{EB1179C0-0EBC-483C-8D7C-4D408F5ABC78}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{9B1A5D72-5516-4A44-AC78-F9DA31B0DDA1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0C1AE250-0E96-48C5-BEC8-6764A3764490}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DEF75D21-66DC-40F4-AB6D-4723859CF65F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{83B69F98-1BE1-47DA-BD8B-DBB6EC4EF3B7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8D805EC4-8585-4174-8869-AE9522C90765}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AF87F95C-C6D2-4306-ABDF-AF225BB5597A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{14639F6A-1E7C-4096-BB60-F901EF8876CC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{207A2821-A82A-4B76-A762-DD99CF7178F0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E96B880F-D683-43A6-9884-EF2F967D52E4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8600,7 +8600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B7AF68-088A-4B9E-82C9-512D6E145F81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE689181-AB3A-4A22-9BA4-C731FE1B70EE}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9807,18 +9807,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A831F40F-F76F-4974-B41E-496851F75093}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A2E7D8A9-B4B3-468E-B787-9771B07E0E99}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{88290355-28D4-49AE-9875-411FB2C512F4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F40C0FBE-7E72-44DD-9338-AD84232730B0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4F1DC664-2AC5-4E57-9D30-245BD4089D81}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F2329567-71D6-476A-B79F-35D9F618105D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D8BECF0E-56A9-45BA-8882-EBB28192CEF6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3C5EC499-DDEF-4D80-97BA-D6DF233C624B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{38759E50-B863-4546-8400-20062158AA22}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{314F185A-D5F4-48DA-9514-414AE951DA45}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B67CE0DD-2F1C-43D6-A765-98C46E65AFCB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C8128F51-67DB-469C-B1E4-E52BA599827B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C1510E61-3ADE-4242-97AC-7D5EE06A7758}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{24CC720E-4EA1-4DC5-860D-E808188AEF92}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4D71AF08-B7B3-4C0F-AE75-2BD0210FEDAF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5522A1F1-485E-4E90-82CB-1BCBDA2CE30B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{67946EF3-C99E-4D75-BE03-690A2708EE57}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6755F2A3-FEFA-45B5-9FC3-1409BD08A654}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CAF52373-C338-43DC-8C5B-B1F0248D8696}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7E18D640-FE6B-4EBF-B2A6-38E472ADE2F1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C597999F-26EF-4F2F-8EAB-D716A1A274E7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9C1FD7DF-4D0E-4ABB-98AC-30BDFD0AEE7B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5190A4E1-AA73-4554-B937-FBE10769B274}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{12874238-65F6-4441-9C2B-9E28D80A6772}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9831,7 +9831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E4DAA2-89BC-4FCA-A9B4-5817DEEE5DE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C83B64-9F2C-4851-A43D-AD2F2D6D5976}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11038,18 +11038,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{BBAFE393-F74D-4E36-AD45-50DAF1922D5D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CD24663F-1A1C-4224-9DFF-881BE64E274B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B98EF31E-309F-4A4E-8DDA-305403E8E572}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{34F4BF58-F6EF-4607-BD4C-C06797D70B51}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5B9E073C-1EA7-45BA-9B80-885CD6D0825D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6CA61A56-214C-475F-AD44-7FC3C3964E99}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{27503595-D04A-4393-B84E-C6C288EF8B6D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7DB24A3B-1E0C-4145-A2E2-869C91397E2A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{662940FB-1D42-4AF3-AAF9-AF81F1B1CC8D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C4B87B57-F227-4356-849F-399269AA90B7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{72F19DA0-3B0A-4F4A-89C9-118CD90695F4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9B253357-A822-4F84-9918-7A77749AC7BB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{15E929E1-3FC5-494F-970B-6043277B773B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{55D1F8C0-25E8-4E60-AB26-26594810AF53}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{962CF6EF-6055-42EB-9397-86CCC9811A2F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BC1040CB-1094-4C08-BD49-ED18FB0EB748}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{EC2EF76C-1C02-4CA9-9EB3-067A7D61BC88}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8CEEF8B8-67C1-4C1B-B77B-7832406A825D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8C68BB2E-BF7D-43DA-94FB-17E6912607FE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8ADC1497-09AD-4645-999A-64B75A9B90A8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8F1184C7-8994-4D3E-9447-BE16EEDB8FDF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A9CC39A6-83C1-4584-9127-56E52F0D6DED}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{720F32B8-A31F-4FD1-8EC1-F4D638B7FDA3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{824B58DB-EDB2-4967-B544-78FD52C099A0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11062,7 +11062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F937828-D4FC-484E-B544-847331B51107}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAE5903-B18B-4A29-9262-BD6A9613E2A8}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12269,18 +12269,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DE718B3D-483A-46FE-A3F7-AD93F58CC2C1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C110C3E3-8911-4F5C-834C-339E74698420}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A53F6FA9-C974-4945-94BA-36AD6CB0DE06}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6ED6D155-9CF7-4A0B-BED1-7401B1A9DC44}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{BB9BE518-1DC8-494E-99B4-4A10A4BD7415}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9A62DE8C-D446-43F2-94AB-A850DC0F98B4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{582BC224-B747-41A9-9864-05347B3A6D72}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A523C6CC-FEC4-473B-A171-034351504CE5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{52CC1D99-C24C-4372-9186-49D94A951EC2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C99F32CE-36C9-459B-9370-2CECEFEF13E6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1329B2FC-7E65-46D5-ABFA-24144FB2943B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AB973BF8-B582-45D6-9987-D08CE8469162}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{96064E01-82E5-4B54-92D1-863845A88AD7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B7C1A27D-CB4F-4DA0-B38D-E8FF2D6B6D69}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7AB912DE-29A7-4E88-94FC-CA8B1593E0FB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{79235DB6-77F4-47B9-B621-5D4B73009333}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3012E184-2569-4DE2-9438-F41159FB7C6E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6B54C470-BA0E-4704-A07B-DA39FFC4E777}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A0FA4E33-E7A9-4F5F-98DB-46031DA3600A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F2C48BD1-2053-498C-B46A-DD3D1C2ECD3B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{220AB567-3A80-41CC-B765-D1FB61383968}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A785B8FD-A26F-496F-9044-D5A2DA07FD76}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C30C44A8-3360-483C-B5E3-D09502655463}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{FB5D4592-7935-42FB-B30A-731592119C57}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12293,7 +12293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57487762-576D-4239-BD4E-55E47B0A440C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBA832A-EB9B-4D5F-AE49-3F19C046D968}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13502,18 +13502,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{FD73864A-F821-48A1-BE68-20DEDE3ED432}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CE4AF505-8A04-44DC-8D1C-F32005E4795C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7D6FEADB-89DB-461B-9EEF-CC2638FA17B9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{2AE9730A-8E02-4CEA-B821-1F1C47497B39}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CFEA39E0-AE84-4440-88F0-041C11185524}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{EC7BA992-D8A9-4952-9645-509BF15038FE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{EF4390C8-1251-4D88-A711-E3B8AAFE3BBC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9FBB3ED7-1E37-4D59-8825-46963B3BD6C2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4AE22C83-CF9C-4D6C-919F-BEAF830CCD35}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B45BFA07-693D-440A-8E64-E4BF878088DD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B3A1123B-B4F5-467B-820A-A8A17C03829C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F669A1BF-430C-40E9-B13C-13BBAB9E268A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{690222CE-CABF-454C-95F7-0E9A8E50FD20}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6F701B8D-7AC9-417E-89E7-960B03DD06C8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{688B9230-A6BA-4843-8516-CA29DBFC9E32}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{00E4B9E1-459E-4D9D-9523-8DC4F31E78A4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0EDF3F1A-DD34-4AFB-89B4-49F7083845E4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3A0C0D8C-707B-4EE8-8005-64BDD9DCF692}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E2105280-DE00-4C9C-A6D9-E0CCBBC0F15B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{681E871B-DF21-4BA5-BABD-FC9E3C0DE041}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6E32F89D-0F41-4EBE-B323-E2A1210A013E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{99589096-9187-4230-A957-4622EC25D049}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A45E1D17-CBED-4CA0-83E0-77AD92A17E20}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{994E2AB2-4665-4373-8314-F3C1A7078371}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13526,7 +13526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AC5C5D-3A5E-45B1-B3F9-43368A9BE891}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A90D2030-B1FB-46C0-9A9A-147756519A56}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14735,18 +14735,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AB890050-D789-4580-949F-E86DCFB33257}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C1156DE7-7168-4149-818F-59E24ACCF6E7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D6196744-DE82-46B7-A180-B4FAA7C74A64}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3C79734A-D644-4C42-A125-C7A0F78CCAB8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{BDD716D4-2737-484F-B508-E9A66CFE893A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B8427EAA-2665-4D97-92FB-94561FC10668}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0DFCA0AD-D1ED-4069-9865-37F36C410CFA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{537D10C2-EC61-46DB-9EBE-028A9301D55B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7D33ACF3-4F7F-4A62-93D1-293C3D5E0BB7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{16A72865-418B-473B-8594-8C79747E9EDA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{36756F10-1DAB-4626-93C9-60CAD132919C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{45C7839B-7C73-4BEB-B2C4-AC96A51534AF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F178DD6B-E4E2-4146-9F9E-E83800F25F92}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5A75EF35-10E0-48EF-BEEF-9652B0D56F8C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9D3AB68A-3EF2-4B4B-9A86-46679A8D569D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{22959808-F4B5-4B80-8A7F-212475047024}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F075284F-15CE-4663-B6EA-5F99D3178135}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2E4A8427-DB92-4541-A6D2-68C18FE2DDE7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{FBCBBF69-07BF-454E-9AF1-0DDF59332997}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{AA8DFD45-9EA3-4E19-8587-3038178B042C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5A75930B-F7EB-459B-990E-654A1F3E0DEA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{24DD33D8-8FC3-4DEB-9F71-E5333BE38F6C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E0E610BE-B99B-4F3D-A424-636A535864FD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{10EE26D1-3FA0-4CFD-A78F-FA4BC934D189}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14759,7 +14759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42C6704-E2AE-4DC6-B860-75EFA57433CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5E07FC-D6C4-4096-B293-997C0AEF1BD8}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15964,18 +15964,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5CAF5DBA-5931-4544-A980-2CB732A271CD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8C1FE15A-134D-4C09-9936-83813FD9017D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{556B0E4A-F858-41C8-8758-35F229903694}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{AFD92888-45D5-4BC4-B969-A88D2E1BC917}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B9B4A296-02C0-410B-82B9-DFBACA238A1E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{1B5C4972-5D1B-4C5B-B308-63521CFEA0FB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{469E459E-9811-41B4-820E-B42A5E385644}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A695D0E4-111B-4686-8FFF-CF62B7D7616D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{754A62E3-F040-4E2C-8A51-F9B49E0DD823}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B0D78273-8C34-4BC0-ACBB-9A5FBB58B052}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D5E31984-9385-45B5-BAA5-1DA4ECC9C306}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C097D04D-1AB5-44E4-82A7-56BFCEC8A866}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1DC3F03C-6613-41BF-8F0F-9D7C2ADE6D6F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EF17059A-7CED-4595-BD16-3195B7805D0D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{13945855-54B9-4CF1-ADE1-1475A5BB6D51}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{55DD489D-ADFB-4656-87DB-FCBB814AF3ED}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{634D648B-95FB-42E1-A59B-E205C9D6B0BF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3490E131-D183-40A1-8915-5D31A8DEE814}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8244A23F-B332-4205-B73D-EC9B0FF13606}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{86A57B6A-D71B-46A7-B418-195B4945A363}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F77F511F-C23B-45A7-8AA3-D44516B8B947}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{BA274616-FFCA-4CB5-8A20-1172E0E3CE45}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{97DC5D73-A5A9-4C84-8C17-BF006C647974}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1A904BD5-7A83-4E96-8009-1830F5FDA12E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
